--- a/Bilder.xlsx
+++ b/Bilder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myzinsky/Programming/HamExamImages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C917E7-226F-6647-9CD6-84E0AD312DEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551DE5E8-1C4E-2F43-A28E-0AA59297C72F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{61BD45D1-9088-114A-9BE1-3E0548C49E30}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
   <si>
     <t>TC525</t>
   </si>
@@ -619,6 +619,105 @@
   </si>
   <si>
     <t>TJ601</t>
+  </si>
+  <si>
+    <t>TK313-4</t>
+  </si>
+  <si>
+    <t>TG201-3</t>
+  </si>
+  <si>
+    <t>TG513-2</t>
+  </si>
+  <si>
+    <t>TK313-3</t>
+  </si>
+  <si>
+    <t>TK313-2</t>
+  </si>
+  <si>
+    <t>TK313-1</t>
+  </si>
+  <si>
+    <t>TK310-1</t>
+  </si>
+  <si>
+    <t>TK310-2</t>
+  </si>
+  <si>
+    <t>TG513-3</t>
+  </si>
+  <si>
+    <t>TG513-1</t>
+  </si>
+  <si>
+    <t>TK310-3</t>
+  </si>
+  <si>
+    <t>TK310-4</t>
+  </si>
+  <si>
+    <t>TG513-4</t>
+  </si>
+  <si>
+    <t>TG201-4</t>
+  </si>
+  <si>
+    <t>TG201-1</t>
+  </si>
+  <si>
+    <t>TD322-3</t>
+  </si>
+  <si>
+    <t>TD322-1</t>
+  </si>
+  <si>
+    <t>TD223</t>
+  </si>
+  <si>
+    <t>TG201-2</t>
+  </si>
+  <si>
+    <t>TD322-2</t>
+  </si>
+  <si>
+    <t>TD322-4</t>
+  </si>
+  <si>
+    <t>TD213</t>
+  </si>
+  <si>
+    <t>TD219</t>
+  </si>
+  <si>
+    <t>TD220</t>
+  </si>
+  <si>
+    <t>TD303</t>
+  </si>
+  <si>
+    <t>TD302</t>
+  </si>
+  <si>
+    <t>TD222</t>
+  </si>
+  <si>
+    <t>TD221</t>
+  </si>
+  <si>
+    <t>TD212</t>
+  </si>
+  <si>
+    <t>TD211</t>
+  </si>
+  <si>
+    <t>TD210</t>
+  </si>
+  <si>
+    <t>TC708</t>
+  </si>
+  <si>
+    <t>TC709</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9246B77-698D-CD41-8067-E8817BC12991}">
   <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,7 +1176,7 @@
       </c>
       <c r="H3">
         <f>COUNTA(B:E)</f>
-        <v>196</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1095,7 +1194,7 @@
       </c>
       <c r="H4">
         <f>COUNTA(B:B)</f>
-        <v>142</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1132,7 +1231,7 @@
       </c>
       <c r="H7">
         <f>H3+16</f>
-        <v>212</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2139,6 +2238,12 @@
       <c r="B121" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="C121" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
@@ -2390,138 +2495,231 @@
       <c r="A149" s="2">
         <v>160</v>
       </c>
+      <c r="B149" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>161</v>
       </c>
+      <c r="B150" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>162</v>
       </c>
+      <c r="B151" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>163</v>
       </c>
+      <c r="B152" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>164</v>
       </c>
+      <c r="B153" s="3" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>165</v>
       </c>
+      <c r="B154" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>166</v>
       </c>
+      <c r="B155" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>167</v>
       </c>
+      <c r="B156" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>168</v>
       </c>
+      <c r="B157" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>169</v>
       </c>
+      <c r="B158" s="3" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>170</v>
       </c>
+      <c r="B159" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>171</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>172</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>173</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>174</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>175</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>176</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>177</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>178</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>179</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>181</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>182</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>183</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>184</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>185</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>187</v>
       </c>

--- a/Bilder.xlsx
+++ b/Bilder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myzinsky/Programming/HamExamImages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551DE5E8-1C4E-2F43-A28E-0AA59297C72F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC600B6-4899-CF41-A586-CA5F5819ACA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{61BD45D1-9088-114A-9BE1-3E0548C49E30}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="246">
   <si>
     <t>TC525</t>
   </si>
@@ -718,6 +718,51 @@
   </si>
   <si>
     <t>TC709</t>
+  </si>
+  <si>
+    <t>TD226-4</t>
+  </si>
+  <si>
+    <t>TD226-3</t>
+  </si>
+  <si>
+    <t>TD226-2</t>
+  </si>
+  <si>
+    <t>TD226-1</t>
+  </si>
+  <si>
+    <t>TD120</t>
+  </si>
+  <si>
+    <t>TD229</t>
+  </si>
+  <si>
+    <t>TD230</t>
+  </si>
+  <si>
+    <t>TC301-2</t>
+  </si>
+  <si>
+    <t>TC301-1</t>
+  </si>
+  <si>
+    <t>TC301-4</t>
+  </si>
+  <si>
+    <t>TC301-3</t>
+  </si>
+  <si>
+    <t>TC202-1</t>
+  </si>
+  <si>
+    <t>TC202-2</t>
+  </si>
+  <si>
+    <t>TC202-3</t>
+  </si>
+  <si>
+    <t>TC202-4</t>
   </si>
 </sst>
 </file>
@@ -1124,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9246B77-698D-CD41-8067-E8817BC12991}">
   <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="98" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1176,7 +1221,7 @@
       </c>
       <c r="H3">
         <f>COUNTA(B:E)</f>
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1194,7 +1239,7 @@
       </c>
       <c r="H4">
         <f>COUNTA(B:B)</f>
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1231,7 +1276,7 @@
       </c>
       <c r="H7">
         <f>H3+16</f>
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2456,7 +2501,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>156</v>
       </c>
@@ -2467,7 +2512,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>157</v>
       </c>
@@ -2475,7 +2520,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>158</v>
       </c>
@@ -2483,7 +2528,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>159</v>
       </c>
@@ -2491,7 +2536,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>160</v>
       </c>
@@ -2499,7 +2544,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>161</v>
       </c>
@@ -2510,7 +2555,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>162</v>
       </c>
@@ -2518,7 +2563,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>163</v>
       </c>
@@ -2526,7 +2571,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>164</v>
       </c>
@@ -2534,7 +2579,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>165</v>
       </c>
@@ -2544,8 +2589,11 @@
       <c r="C154" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>166</v>
       </c>
@@ -2556,7 +2604,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>167</v>
       </c>
@@ -2566,8 +2614,11 @@
       <c r="C156" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>168</v>
       </c>
@@ -2578,7 +2629,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>169</v>
       </c>
@@ -2586,7 +2637,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>170</v>
       </c>
@@ -2594,7 +2645,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>171</v>
       </c>
@@ -2609,6 +2660,9 @@
       <c r="B161" s="3" t="s">
         <v>215</v>
       </c>
+      <c r="C161" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
@@ -2698,108 +2752,144 @@
       <c r="A171" s="2">
         <v>182</v>
       </c>
+      <c r="B171" s="3" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>183</v>
       </c>
+      <c r="B172" s="3" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>184</v>
       </c>
+      <c r="B173" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>185</v>
       </c>
+      <c r="B174" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>186</v>
       </c>
+      <c r="B175" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>187</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>188</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>189</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>191</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>192</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>193</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>195</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>196</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>197</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>198</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>199</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>202</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>203</v>
       </c>

--- a/Bilder.xlsx
+++ b/Bilder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myzinsky/Programming/HamExamImages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC600B6-4899-CF41-A586-CA5F5819ACA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4A39C0-74AE-0C43-945C-B58C2A9953B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{61BD45D1-9088-114A-9BE1-3E0548C49E30}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{61BD45D1-9088-114A-9BE1-3E0548C49E30}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="248">
   <si>
     <t>TC525</t>
   </si>
@@ -763,13 +763,19 @@
   </si>
   <si>
     <t>TC202-4</t>
+  </si>
+  <si>
+    <t>TD201</t>
+  </si>
+  <si>
+    <t>TD202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -788,6 +794,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -846,13 +859,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1169,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9246B77-698D-CD41-8067-E8817BC12991}">
   <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="98" workbookViewId="0">
-      <selection activeCell="F159" sqref="F159"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1188,7 +1202,7 @@
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1221,7 +1235,7 @@
       </c>
       <c r="H3">
         <f>COUNTA(B:E)</f>
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1239,7 +1253,7 @@
       </c>
       <c r="H4">
         <f>COUNTA(B:B)</f>
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1274,10 +1288,6 @@
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7">
-        <f>H3+16</f>
-        <v>260</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -2823,10 +2833,16 @@
       <c r="A178" s="2">
         <v>189</v>
       </c>
+      <c r="B178" s="3" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>190</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">

--- a/Bilder.xlsx
+++ b/Bilder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myzinsky/Programming/HamExamImages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4A39C0-74AE-0C43-945C-B58C2A9953B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA072301-A36E-3145-A877-C9CA0D784BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{61BD45D1-9088-114A-9BE1-3E0548C49E30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{61BD45D1-9088-114A-9BE1-3E0548C49E30}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="298">
   <si>
     <t>TC525</t>
   </si>
@@ -769,6 +769,156 @@
   </si>
   <si>
     <t>TD202</t>
+  </si>
+  <si>
+    <t>TB305</t>
+  </si>
+  <si>
+    <t>TB407</t>
+  </si>
+  <si>
+    <t>TB306</t>
+  </si>
+  <si>
+    <t>Neu?</t>
+  </si>
+  <si>
+    <t>IQ1</t>
+  </si>
+  <si>
+    <t>Kabeldiagram</t>
+  </si>
+  <si>
+    <t>TB503</t>
+  </si>
+  <si>
+    <t>TB503b</t>
+  </si>
+  <si>
+    <t>TB503c</t>
+  </si>
+  <si>
+    <t>TB503d</t>
+  </si>
+  <si>
+    <t>TB601</t>
+  </si>
+  <si>
+    <t>TB611</t>
+  </si>
+  <si>
+    <t>TB612</t>
+  </si>
+  <si>
+    <t>TB701</t>
+  </si>
+  <si>
+    <t>TD302-1</t>
+  </si>
+  <si>
+    <t>TD302-2</t>
+  </si>
+  <si>
+    <t>TD302-3</t>
+  </si>
+  <si>
+    <t>TD302-4</t>
+  </si>
+  <si>
+    <t>TD311-1</t>
+  </si>
+  <si>
+    <t>TD311-2</t>
+  </si>
+  <si>
+    <t>TD311-3</t>
+  </si>
+  <si>
+    <t>TD311-4</t>
+  </si>
+  <si>
+    <t>TC626-1</t>
+  </si>
+  <si>
+    <t>TC626-2</t>
+  </si>
+  <si>
+    <t>TC626-3</t>
+  </si>
+  <si>
+    <t>TC626-4</t>
+  </si>
+  <si>
+    <t>TC626</t>
+  </si>
+  <si>
+    <t>TD431-1</t>
+  </si>
+  <si>
+    <t>TD341-2</t>
+  </si>
+  <si>
+    <t>TD431-3</t>
+  </si>
+  <si>
+    <t>TD431-4</t>
+  </si>
+  <si>
+    <t>TD431-Q2</t>
+  </si>
+  <si>
+    <t>TD431-Neu</t>
+  </si>
+  <si>
+    <t>TD432-Q2</t>
+  </si>
+  <si>
+    <t>TD432-2</t>
+  </si>
+  <si>
+    <t>TD432-1</t>
+  </si>
+  <si>
+    <t>TD432-4</t>
+  </si>
+  <si>
+    <t>TD432-3</t>
+  </si>
+  <si>
+    <t>TD204-1</t>
+  </si>
+  <si>
+    <t>TD204-2</t>
+  </si>
+  <si>
+    <t>TD204-3</t>
+  </si>
+  <si>
+    <t>TD204-4</t>
+  </si>
+  <si>
+    <t>TH132</t>
+  </si>
+  <si>
+    <t>TH133</t>
+  </si>
+  <si>
+    <t>TH134</t>
+  </si>
+  <si>
+    <t>TH135</t>
+  </si>
+  <si>
+    <t>TH110E</t>
+  </si>
+  <si>
+    <t>TH136</t>
+  </si>
+  <si>
+    <t>TH137</t>
+  </si>
+  <si>
+    <t>TC101-1</t>
   </si>
 </sst>
 </file>
@@ -1181,16 +1331,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9246B77-698D-CD41-8067-E8817BC12991}">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="3"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
   </cols>
@@ -1235,7 +1386,7 @@
       </c>
       <c r="H3">
         <f>COUNTA(B:E)</f>
-        <v>246</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1253,7 +1404,7 @@
       </c>
       <c r="H4">
         <f>COUNTA(B:B)</f>
-        <v>173</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2849,230 +3000,495 @@
       <c r="A180" s="2">
         <v>191</v>
       </c>
+      <c r="B180" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>192</v>
       </c>
+      <c r="B181" s="3" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>193</v>
       </c>
+      <c r="B182" s="3" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>194</v>
       </c>
+      <c r="B183" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>195</v>
       </c>
+      <c r="B184" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>196</v>
       </c>
+      <c r="B185" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>197</v>
       </c>
+      <c r="B186" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>198</v>
       </c>
+      <c r="B187" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>199</v>
       </c>
+      <c r="B188" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>200</v>
       </c>
+      <c r="B189" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>201</v>
       </c>
+      <c r="B190" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>202</v>
       </c>
+      <c r="B191" s="3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>204</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>205</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B194" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>206</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B195" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>207</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B196" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>208</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B197" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>209</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B198" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>210</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B199" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>211</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B200" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>212</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B201" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>213</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B202" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>214</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B203" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>215</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B204" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>216</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B205" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>217</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B206" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>218</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B207" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>219</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B208" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>220</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B209" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>221</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B210" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>222</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B211" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>223</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B212" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>224</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B213" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>225</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B214" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>226</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B215" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>227</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B216" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B217" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>229</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B218" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B219" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>231</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B220" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>232</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B221" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>233</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B222" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>234</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B223" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>235</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B224" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>236</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <v>237</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <v>238</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Bilder.xlsx
+++ b/Bilder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myzinsky/Programming/HamExamImages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA072301-A36E-3145-A877-C9CA0D784BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58649FE9-211A-714F-A079-7C85FBB5E4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{61BD45D1-9088-114A-9BE1-3E0548C49E30}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="339">
   <si>
     <t>TC525</t>
   </si>
@@ -919,6 +919,129 @@
   </si>
   <si>
     <t>TC101-1</t>
+  </si>
+  <si>
+    <t>TC101-2</t>
+  </si>
+  <si>
+    <t>TC101-3</t>
+  </si>
+  <si>
+    <t>TC101-4</t>
+  </si>
+  <si>
+    <t>TF326-1</t>
+  </si>
+  <si>
+    <t>TF326-2</t>
+  </si>
+  <si>
+    <t>TF326-3</t>
+  </si>
+  <si>
+    <t>TF326-4</t>
+  </si>
+  <si>
+    <t>TG202-1</t>
+  </si>
+  <si>
+    <t>TG202-2</t>
+  </si>
+  <si>
+    <t>TG202-3</t>
+  </si>
+  <si>
+    <t>TG202-4</t>
+  </si>
+  <si>
+    <t>TG231-1</t>
+  </si>
+  <si>
+    <t>TG231-2</t>
+  </si>
+  <si>
+    <t>TG231-3</t>
+  </si>
+  <si>
+    <t>TG232-1</t>
+  </si>
+  <si>
+    <t>TG231-4</t>
+  </si>
+  <si>
+    <t>TG232-2</t>
+  </si>
+  <si>
+    <t>TG232-3</t>
+  </si>
+  <si>
+    <t>TG232-4</t>
+  </si>
+  <si>
+    <t>TG520-1</t>
+  </si>
+  <si>
+    <t>TG520-2</t>
+  </si>
+  <si>
+    <t>TG520-3</t>
+  </si>
+  <si>
+    <t>TG520-4</t>
+  </si>
+  <si>
+    <t>TK303-1</t>
+  </si>
+  <si>
+    <t>TK303-2</t>
+  </si>
+  <si>
+    <t>TK303-3</t>
+  </si>
+  <si>
+    <t>TK303-4</t>
+  </si>
+  <si>
+    <t>TH112</t>
+  </si>
+  <si>
+    <t>EFHW</t>
+  </si>
+  <si>
+    <t>TH147</t>
+  </si>
+  <si>
+    <t>TH148</t>
+  </si>
+  <si>
+    <t>TH206</t>
+  </si>
+  <si>
+    <t>TH207</t>
+  </si>
+  <si>
+    <t>TH222</t>
+  </si>
+  <si>
+    <t>TH222-2</t>
+  </si>
+  <si>
+    <t>TH212</t>
+  </si>
+  <si>
+    <t>TH213</t>
+  </si>
+  <si>
+    <t>TH222-3</t>
+  </si>
+  <si>
+    <t>TH222-4</t>
+  </si>
+  <si>
+    <t>TH223</t>
+  </si>
+  <si>
+    <t>TH224</t>
   </si>
 </sst>
 </file>
@@ -1331,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9246B77-698D-CD41-8067-E8817BC12991}">
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1386,7 +1509,7 @@
       </c>
       <c r="H3">
         <f>COUNTA(B:E)</f>
-        <v>301</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1404,7 +1527,7 @@
       </c>
       <c r="H4">
         <f>COUNTA(B:B)</f>
-        <v>221</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3374,7 +3497,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>236</v>
       </c>
@@ -3382,7 +3505,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>237</v>
       </c>
@@ -3393,7 +3516,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>238</v>
       </c>
@@ -3401,94 +3524,335 @@
         <v>297</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>239</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B228" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B229" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>241</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B230" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>242</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B231" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>243</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B232" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>244</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B233" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>245</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B234" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>246</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B235" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>247</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B236" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>248</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B237" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>249</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B238" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B239" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>251</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B240" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>252</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B241" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>253</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B242" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>254</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B243" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>255</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B244" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>256</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
+        <v>257</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="2">
+        <v>258</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
+        <v>259</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="2">
+        <v>260</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
+        <v>261</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
+        <v>262</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
+        <v>263</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>264</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
+        <v>265</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>266</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>267</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>268</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>269</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
